--- a/Docs/Finales/Temporalización.xlsx
+++ b/Docs/Finales/Temporalización.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto-de-Bases-de-Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto-de-Bases-de-Datos\Docs\Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4247D-9940-4DFB-AC3F-05E51BFEA5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D39768-930A-4ADD-A72E-4BA1313394C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{F22310CE-295C-45B1-B727-48807D35799A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F22310CE-295C-45B1-B727-48807D35799A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>EDUARDO</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Realización de colsultas SQL (tipo subconsultas)</t>
   </si>
   <si>
-    <t>Actualizar las imágenes de los modelos, realizar las consultas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar las consultas restantes, PowerPoint, y normalización </t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>Realizar las consultas restantes(uldate insert, y PL SQL) y comprobar el Script</t>
+  </si>
+  <si>
+    <t>Realización de los requisitos del proyecto y de los modelos (ER-Relacional-Fisico)</t>
+  </si>
+  <si>
+    <t>Actualizar las imágenes de los modelos, realizar las consultas, introducir datos en el script</t>
   </si>
 </sst>
 </file>
@@ -322,34 +325,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +363,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +699,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,17 +710,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -725,276 +728,276 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="8">
         <v>44842</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="11">
         <v>44849</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>5</v>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="8">
         <v>44858</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>44900</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="11">
         <v>44981</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="11">
         <v>45000</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45067</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>45067</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="8">
         <v>44842</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="11">
         <v>44849</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>44858</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44900</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>44981</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>45000</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>45067</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>44842</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44849</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>44858</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>44900</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>44981</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="C27" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>45000</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>45067</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>45067</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>44842</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>44849</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>44858</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>44900</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>44981</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>45000</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>45067</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
